--- a/Python Testing TOC Updated.xlsx
+++ b/Python Testing TOC Updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydocuments\PythonClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8D2DDC-EEA9-49BB-905D-8A9CA9317240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4774CA0-023B-490C-A7A3-083B8441F073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2762BDF-0082-4CA7-AFCC-95EAC8427F6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2762BDF-0082-4CA7-AFCC-95EAC8427F6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,67 +572,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,391 +971,391 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE2393-7DA2-4068-9BDA-9F7D86616920}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A51"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="86.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="129" style="4" customWidth="1"/>
-    <col min="3" max="3" width="48.21875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="86.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="129" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:3" s="5" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="21">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="21"/>
     </row>
     <row r="27" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A35" s="11"/>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A36" s="11"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="18"/>
     </row>
     <row r="37" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A37" s="11"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="18"/>
     </row>
     <row r="38" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="18"/>
     </row>
     <row r="40" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="18"/>
     </row>
     <row r="41" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="18"/>
     </row>
     <row r="42" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="18"/>
     </row>
     <row r="43" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="9"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="18"/>
     </row>
     <row r="44" spans="1:3" ht="129" x14ac:dyDescent="0.5">
-      <c r="A44" s="12"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:3" ht="129" x14ac:dyDescent="0.5">
-      <c r="A45" s="12"/>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:3" ht="129" x14ac:dyDescent="0.5">
-      <c r="A46" s="12"/>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="18"/>
     </row>
     <row r="47" spans="1:3" ht="129" x14ac:dyDescent="0.5">
-      <c r="A47" s="12"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="18"/>
     </row>
     <row r="48" spans="1:3" ht="154.80000000000001" x14ac:dyDescent="0.5">
-      <c r="A48" s="12"/>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3" ht="129" x14ac:dyDescent="0.5">
-      <c r="A49" s="12"/>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3" ht="129" x14ac:dyDescent="0.5">
-      <c r="A50" s="12"/>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="19"/>
+      <c r="B50" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3" ht="129" x14ac:dyDescent="0.5">
-      <c r="A51" s="12"/>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="19"/>
+      <c r="B51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="1:3" s="17" customFormat="1" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
+      <c r="C51" s="18"/>
+    </row>
+    <row r="52" spans="1:3" s="16" customFormat="1" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="16" customFormat="1" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+    <row r="53" spans="1:3" s="10" customFormat="1" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="14" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
+    <row r="54" spans="1:3" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Python Testing TOC Updated.xlsx
+++ b/Python Testing TOC Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydocuments\PythonClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4774CA0-023B-490C-A7A3-083B8441F073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC7F7D-6065-481F-A111-4F26C5E0AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2762BDF-0082-4CA7-AFCC-95EAC8427F6D}"/>
   </bookViews>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE2393-7DA2-4068-9BDA-9F7D86616920}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Python Testing TOC Updated.xlsx
+++ b/Python Testing TOC Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydocuments\PythonClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC7F7D-6065-481F-A111-4F26C5E0AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B32DFBB-FAB3-408D-9C8E-EE415E7AE09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2762BDF-0082-4CA7-AFCC-95EAC8427F6D}"/>
   </bookViews>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE2393-7DA2-4068-9BDA-9F7D86616920}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Python Testing TOC Updated.xlsx
+++ b/Python Testing TOC Updated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydocuments\PythonClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B32DFBB-FAB3-408D-9C8E-EE415E7AE09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5813C0F9-9C6C-4F8E-8147-646C6EAA5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2762BDF-0082-4CA7-AFCC-95EAC8427F6D}"/>
   </bookViews>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE2393-7DA2-4068-9BDA-9F7D86616920}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A51"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Python Testing TOC Updated.xlsx
+++ b/Python Testing TOC Updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mydocuments\PythonClass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\PythonClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5813C0F9-9C6C-4F8E-8147-646C6EAA5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1071DAC4-5BDD-403C-8043-8F805000B806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2762BDF-0082-4CA7-AFCC-95EAC8427F6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E2762BDF-0082-4CA7-AFCC-95EAC8427F6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,19 +971,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE2393-7DA2-4068-9BDA-9F7D86616920}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="86.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="86.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="129" style="3" customWidth="1"/>
-    <col min="3" max="3" width="48.21875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="48.25" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
@@ -992,22 +992,22 @@
       </c>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="26.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1018,14 +1018,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="5" customFormat="1" ht="85.9" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
     </row>
-    <row r="7" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
@@ -1036,152 +1036,152 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" ht="25.5">
       <c r="A8" s="20"/>
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="21"/>
     </row>
-    <row r="9" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" ht="25.5">
       <c r="A9" s="20"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" ht="25.5">
       <c r="A10" s="20"/>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="20"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="21"/>
     </row>
-    <row r="12" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="20"/>
       <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="21"/>
     </row>
-    <row r="13" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" ht="25.5">
       <c r="A13" s="20"/>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="21"/>
     </row>
-    <row r="14" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="25.5">
       <c r="A14" s="20"/>
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="21"/>
     </row>
-    <row r="15" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" ht="25.5">
       <c r="A15" s="20"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="25.5">
       <c r="A16" s="20"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="21"/>
     </row>
-    <row r="17" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" ht="25.5">
       <c r="A17" s="20"/>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="21"/>
     </row>
-    <row r="18" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" ht="25.5">
       <c r="A18" s="20"/>
       <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="21"/>
     </row>
-    <row r="19" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" ht="25.5">
       <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="21"/>
     </row>
-    <row r="20" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" ht="25.5">
       <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="21"/>
     </row>
-    <row r="21" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" ht="25.5">
       <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" ht="25.5">
       <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="21"/>
     </row>
-    <row r="23" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" ht="25.5">
       <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="21"/>
     </row>
-    <row r="24" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" ht="25.5">
       <c r="A24" s="20"/>
       <c r="B24" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="21"/>
     </row>
-    <row r="25" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" ht="25.5">
       <c r="A25" s="20"/>
       <c r="B25" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="21"/>
     </row>
-    <row r="26" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" ht="25.5">
       <c r="A26" s="20"/>
       <c r="B26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="21"/>
     </row>
-    <row r="27" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="25.9" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
     </row>
-    <row r="28" spans="1:3" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="25.9" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
     </row>
-    <row r="29" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" ht="25.5">
       <c r="A29" s="22" t="s">
         <v>16</v>
       </c>
@@ -1192,63 +1192,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" ht="25.5">
       <c r="A30" s="22"/>
       <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="18"/>
     </row>
-    <row r="31" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" ht="25.5">
       <c r="A31" s="22"/>
       <c r="B31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="18"/>
     </row>
-    <row r="32" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" ht="25.5">
       <c r="A32" s="22"/>
       <c r="B32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="18"/>
     </row>
-    <row r="33" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" ht="25.5">
       <c r="A33" s="22"/>
       <c r="B33" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" ht="25.5">
       <c r="A34" s="22"/>
       <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" ht="25.5">
       <c r="A35" s="22"/>
       <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="18"/>
     </row>
-    <row r="36" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" ht="25.5">
       <c r="A36" s="22"/>
       <c r="B36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="18"/>
     </row>
-    <row r="37" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" ht="25.5">
       <c r="A37" s="22"/>
       <c r="B37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="18"/>
     </row>
-    <row r="38" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.65" customHeight="1">
       <c r="A38" s="19" t="s">
         <v>34</v>
       </c>
@@ -1259,98 +1259,98 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14.65" customHeight="1">
       <c r="A39" s="19"/>
       <c r="B39" s="23"/>
       <c r="C39" s="18"/>
     </row>
-    <row r="40" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14.65" customHeight="1">
       <c r="A40" s="19"/>
       <c r="B40" s="23"/>
       <c r="C40" s="18"/>
     </row>
-    <row r="41" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14.65" customHeight="1">
       <c r="A41" s="19"/>
       <c r="B41" s="23"/>
       <c r="C41" s="18"/>
     </row>
-    <row r="42" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.65" customHeight="1">
       <c r="A42" s="19"/>
       <c r="B42" s="23"/>
       <c r="C42" s="18"/>
     </row>
-    <row r="43" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="87" customHeight="1">
       <c r="A43" s="19"/>
       <c r="B43" s="23"/>
       <c r="C43" s="18"/>
     </row>
-    <row r="44" spans="1:3" ht="129" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" ht="128.25">
       <c r="A44" s="19"/>
       <c r="B44" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="18"/>
     </row>
-    <row r="45" spans="1:3" ht="129" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" ht="128.25">
       <c r="A45" s="19"/>
       <c r="B45" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="18"/>
     </row>
-    <row r="46" spans="1:3" ht="129" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" ht="128.25">
       <c r="A46" s="19"/>
       <c r="B46" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="18"/>
     </row>
-    <row r="47" spans="1:3" ht="129" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" ht="128.25">
       <c r="A47" s="19"/>
       <c r="B47" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="18"/>
     </row>
-    <row r="48" spans="1:3" ht="154.80000000000001" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" ht="153.75">
       <c r="A48" s="19"/>
       <c r="B48" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="18"/>
     </row>
-    <row r="49" spans="1:3" ht="129" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" ht="128.25">
       <c r="A49" s="19"/>
       <c r="B49" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C49" s="18"/>
     </row>
-    <row r="50" spans="1:3" ht="129" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" ht="128.25">
       <c r="A50" s="19"/>
       <c r="B50" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="18"/>
     </row>
-    <row r="51" spans="1:3" ht="129" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" ht="128.25">
       <c r="A51" s="19"/>
       <c r="B51" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="18"/>
     </row>
-    <row r="52" spans="1:3" s="16" customFormat="1" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="16" customFormat="1" ht="88.9" customHeight="1">
       <c r="A52" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="10" customFormat="1" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="10" customFormat="1" ht="88.9" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="8" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="8" customFormat="1" ht="78" customHeight="1">
       <c r="A54" s="11" t="s">
         <v>54</v>
       </c>
@@ -1390,13 +1390,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="48.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>51</v>
       </c>
